--- a/data/georgia_census/imereti/vani/average_wages.xlsx
+++ b/data/georgia_census/imereti/vani/average_wages.xlsx
@@ -1105,13 +1105,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{898C75EC-EDB4-4D73-8748-D714E6AAE751}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FEA6226-44D6-47AC-9CAE-3D24B93317B2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A151CC16-5634-4E31-B824-E5F8A0929625}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E72945DE-007C-4F80-AC4D-7299B861F1C2}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D9114BD-BC9A-4455-AA49-86EAF84DF732}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81DB3A35-A028-4BF5-BEA8-8ABA7E1DF9A8}"/>
 </file>